--- a/Code/Results/Cases/Case_2_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.603048727456269</v>
+        <v>1.791111874039018</v>
       </c>
       <c r="C2">
-        <v>0.1048345756801581</v>
+        <v>0.03324406318822071</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01514845333288495</v>
+        <v>0.0642612727440639</v>
       </c>
       <c r="F2">
-        <v>2.378245657474864</v>
+        <v>3.87690584660406</v>
       </c>
       <c r="G2">
-        <v>0.0008648161859477857</v>
+        <v>0.002637231989988654</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1365248406661559</v>
+        <v>0.2446161763393331</v>
       </c>
       <c r="K2">
-        <v>1.428689566270521</v>
+        <v>1.28578184861567</v>
       </c>
       <c r="L2">
-        <v>0.1167103832407932</v>
+        <v>0.2276476898771023</v>
       </c>
       <c r="M2">
-        <v>0.2887203845584949</v>
+        <v>0.373626407520959</v>
       </c>
       <c r="N2">
-        <v>2.643056187782719</v>
+        <v>4.426523778078547</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.431740185513831</v>
+        <v>1.757513110745663</v>
       </c>
       <c r="C3">
-        <v>0.09030587093306508</v>
+        <v>0.02894370036712246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01460248200488845</v>
+        <v>0.06444610348159152</v>
       </c>
       <c r="F3">
-        <v>2.261992570942397</v>
+        <v>3.862069570967918</v>
       </c>
       <c r="G3">
-        <v>0.0008716799071138579</v>
+        <v>0.002641523552572135</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1396194006754712</v>
+        <v>0.2452501559365938</v>
       </c>
       <c r="K3">
-        <v>1.263250409645678</v>
+        <v>1.249973112376694</v>
       </c>
       <c r="L3">
-        <v>0.1054365607316825</v>
+        <v>0.2264756928067584</v>
       </c>
       <c r="M3">
-        <v>0.2585888766151712</v>
+        <v>0.3683393834281361</v>
       </c>
       <c r="N3">
-        <v>2.65401917177698</v>
+        <v>4.433308292482565</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.328650805151256</v>
+        <v>1.737860886305128</v>
       </c>
       <c r="C4">
-        <v>0.08151198529529324</v>
+        <v>0.02630019188752897</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01427998710722544</v>
+        <v>0.0645762509700889</v>
       </c>
       <c r="F4">
-        <v>2.19365522330942</v>
+        <v>3.854390642668804</v>
       </c>
       <c r="G4">
-        <v>0.0008760219429839723</v>
+        <v>0.002644298649288543</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1415565166709714</v>
+        <v>0.2456539588095357</v>
       </c>
       <c r="K4">
-        <v>1.163565963301352</v>
+        <v>1.228737739201136</v>
       </c>
       <c r="L4">
-        <v>0.09864107285147838</v>
+        <v>0.2258642718633226</v>
       </c>
       <c r="M4">
-        <v>0.2404480770115889</v>
+        <v>0.3652911447098575</v>
       </c>
       <c r="N4">
-        <v>2.662868286165789</v>
+        <v>4.438317727532805</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.287121416124506</v>
+        <v>1.730098405744656</v>
       </c>
       <c r="C5">
-        <v>0.07795532184688625</v>
+        <v>0.02522208149501637</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01415166809832069</v>
+        <v>0.0646334926623009</v>
       </c>
       <c r="F5">
-        <v>2.166526023270748</v>
+        <v>3.851621323845677</v>
       </c>
       <c r="G5">
-        <v>0.0008778243925235254</v>
+        <v>0.002645464855429003</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.142355310843036</v>
+        <v>0.2458221697563916</v>
       </c>
       <c r="K5">
-        <v>1.123373988184909</v>
+        <v>1.220273009258733</v>
       </c>
       <c r="L5">
-        <v>0.09590163026911114</v>
+        <v>0.2256423957680127</v>
       </c>
       <c r="M5">
-        <v>0.2331386084623865</v>
+        <v>0.3640988227680637</v>
       </c>
       <c r="N5">
-        <v>2.666985715995253</v>
+        <v>4.440571198703964</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.280253208358687</v>
+        <v>1.728824311699526</v>
       </c>
       <c r="C6">
-        <v>0.07736622783662028</v>
+        <v>0.02504300763838785</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0141305453057754</v>
+        <v>0.06464325208021204</v>
       </c>
       <c r="F6">
-        <v>2.162063360107695</v>
+        <v>3.851183223205481</v>
       </c>
       <c r="G6">
-        <v>0.0008781257092163267</v>
+        <v>0.002645660640527362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1424885206261894</v>
+        <v>0.245850322067831</v>
       </c>
       <c r="K6">
-        <v>1.116724827261407</v>
+        <v>1.218878851881442</v>
       </c>
       <c r="L6">
-        <v>0.09544848777341741</v>
+        <v>0.2256072035261738</v>
       </c>
       <c r="M6">
-        <v>0.2319296833984339</v>
+        <v>0.3639038520627906</v>
       </c>
       <c r="N6">
-        <v>2.667699703780926</v>
+        <v>4.440958193250836</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.328088839343394</v>
+        <v>1.73775520269686</v>
       </c>
       <c r="C7">
-        <v>0.08146391621005478</v>
+        <v>0.02628565570772423</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01427824412579337</v>
+        <v>0.06457700590181403</v>
       </c>
       <c r="F7">
-        <v>2.193286497875903</v>
+        <v>3.854351837203637</v>
       </c>
       <c r="G7">
-        <v>0.0008760461165031405</v>
+        <v>0.00264431423384233</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1415672512930799</v>
+        <v>0.2456562125476864</v>
       </c>
       <c r="K7">
-        <v>1.163022237389214</v>
+        <v>1.228622816311571</v>
       </c>
       <c r="L7">
-        <v>0.09860400987500384</v>
+        <v>0.22586116899312</v>
       </c>
       <c r="M7">
-        <v>0.2403491722197266</v>
+        <v>0.365274862667448</v>
       </c>
       <c r="N7">
-        <v>2.662921771797812</v>
+        <v>4.438347260025594</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.543517838411361</v>
+        <v>1.779324200381268</v>
       </c>
       <c r="C8">
-        <v>0.09979565253277656</v>
+        <v>0.03176188088598053</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01495749463930185</v>
+        <v>0.06432155402613216</v>
       </c>
       <c r="F8">
-        <v>2.33750130005636</v>
+        <v>3.871493464625843</v>
       </c>
       <c r="G8">
-        <v>0.0008671568727252996</v>
+        <v>0.002638682719411121</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1375842093989865</v>
+        <v>0.2448317569989413</v>
       </c>
       <c r="K8">
-        <v>1.371223640352952</v>
+        <v>1.273278996583144</v>
       </c>
       <c r="L8">
-        <v>0.1127955784369519</v>
+        <v>0.2272211759337708</v>
       </c>
       <c r="M8">
-        <v>0.2782516385696887</v>
+        <v>0.3717623809831672</v>
       </c>
       <c r="N8">
-        <v>2.646383455572703</v>
+        <v>4.428687917841529</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.984873052356761</v>
+        <v>1.868597799042334</v>
       </c>
       <c r="C9">
-        <v>0.1369957150892986</v>
+        <v>0.04248083778131218</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0163958332841716</v>
+        <v>0.06395212277945728</v>
       </c>
       <c r="F9">
-        <v>2.646710136237985</v>
+        <v>3.916457569267337</v>
       </c>
       <c r="G9">
-        <v>0.0008506930917493804</v>
+        <v>0.002628745497978854</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1300634070939122</v>
+        <v>0.2433301969132131</v>
       </c>
       <c r="K9">
-        <v>1.796834572727477</v>
+        <v>1.366821023761275</v>
       </c>
       <c r="L9">
-        <v>0.1417325901337207</v>
+        <v>0.2307435917497074</v>
       </c>
       <c r="M9">
-        <v>0.3558028773432085</v>
+        <v>0.3860537780634488</v>
       </c>
       <c r="N9">
-        <v>2.63179200296625</v>
+        <v>4.416445182425377</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.324135912050963</v>
+        <v>1.938926891603842</v>
       </c>
       <c r="C10">
-        <v>0.1654672095412622</v>
+        <v>0.05035077170568059</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01752595804134582</v>
+        <v>0.06375998093214186</v>
       </c>
       <c r="F10">
-        <v>2.893422757761712</v>
+        <v>3.956417631701242</v>
       </c>
       <c r="G10">
-        <v>0.0008391191410195203</v>
+        <v>0.00262211174993811</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.124709258254347</v>
+        <v>0.242296975610385</v>
       </c>
       <c r="K10">
-        <v>2.123587172236228</v>
+        <v>1.439209906518983</v>
       </c>
       <c r="L10">
-        <v>0.1638231327803439</v>
+        <v>0.233849609326839</v>
       </c>
       <c r="M10">
-        <v>0.4153059194118924</v>
+        <v>0.3975098029892905</v>
       </c>
       <c r="N10">
-        <v>2.633524340026099</v>
+        <v>4.411542976555268</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.482593119122214</v>
+        <v>1.971953734095564</v>
       </c>
       <c r="C11">
-        <v>0.1787621387646965</v>
+        <v>0.05393138269511155</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01805826815667544</v>
+        <v>0.06368960051483441</v>
       </c>
       <c r="F11">
-        <v>3.010750237842444</v>
+        <v>3.976102141404112</v>
       </c>
       <c r="G11">
-        <v>0.0008339505502137018</v>
+        <v>0.00261923720935231</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1223097534477855</v>
+        <v>0.241842078118454</v>
       </c>
       <c r="K11">
-        <v>2.276154031071997</v>
+        <v>1.472942681550307</v>
       </c>
       <c r="L11">
-        <v>0.1740910533668583</v>
+        <v>0.2353744447371682</v>
       </c>
       <c r="M11">
-        <v>0.4430622003984084</v>
+        <v>0.4029290688621856</v>
       </c>
       <c r="N11">
-        <v>2.637408932538335</v>
+        <v>4.410203539660969</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.543269273136843</v>
+        <v>1.984608854769363</v>
       </c>
       <c r="C12">
-        <v>0.1838548093488015</v>
+        <v>0.05528745238316901</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01826267577784702</v>
+        <v>0.06366538223589124</v>
       </c>
       <c r="F12">
-        <v>3.055990333261462</v>
+        <v>3.983772793668692</v>
       </c>
       <c r="G12">
-        <v>0.0008320056926262382</v>
+        <v>0.002618169168437735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1214062661845201</v>
+        <v>0.2416719921881061</v>
       </c>
       <c r="K12">
-        <v>2.334571733903061</v>
+        <v>1.485832108819977</v>
       </c>
       <c r="L12">
-        <v>0.1780141600665246</v>
+        <v>0.2359678833457721</v>
       </c>
       <c r="M12">
-        <v>0.4536844238460347</v>
+        <v>0.4050110607444353</v>
       </c>
       <c r="N12">
-        <v>2.639361938390181</v>
+        <v>4.40982454443909</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.53017035854117</v>
+        <v>1.981876741586632</v>
       </c>
       <c r="C13">
-        <v>0.1827552732927984</v>
+        <v>0.05499538947078975</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01821852318613537</v>
+        <v>0.06367049009381009</v>
       </c>
       <c r="F13">
-        <v>3.046209690007515</v>
+        <v>3.982111151188747</v>
       </c>
       <c r="G13">
-        <v>0.0008324240273908628</v>
+        <v>0.002618398280665207</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1216006196220398</v>
+        <v>0.2417085265561809</v>
       </c>
       <c r="K13">
-        <v>2.32196044369141</v>
+        <v>1.483050998461977</v>
       </c>
       <c r="L13">
-        <v>0.1771676405813594</v>
+        <v>0.2358393645474237</v>
       </c>
       <c r="M13">
-        <v>0.4513915643309545</v>
+        <v>0.4045613405793347</v>
       </c>
       <c r="N13">
-        <v>2.638919261006833</v>
+        <v>4.409900462711931</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.487571038859812</v>
+        <v>1.972991901341459</v>
       </c>
       <c r="C14">
-        <v>0.1791798959347801</v>
+        <v>0.05404294342524452</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01807502677424999</v>
+        <v>0.06368755938187043</v>
       </c>
       <c r="F14">
-        <v>3.014455446318721</v>
+        <v>3.97672887088504</v>
       </c>
       <c r="G14">
-        <v>0.000833790306669547</v>
+        <v>0.002619148930909389</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1222353199071406</v>
+        <v>0.2418280414803462</v>
       </c>
       <c r="K14">
-        <v>2.280946700753333</v>
+        <v>1.474000785782806</v>
       </c>
       <c r="L14">
-        <v>0.1744130903177705</v>
+        <v>0.2354229467117932</v>
       </c>
       <c r="M14">
-        <v>0.4439337855561405</v>
+        <v>0.4030997580005646</v>
       </c>
       <c r="N14">
-        <v>2.637559723648337</v>
+        <v>4.410169788876317</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.461567690844845</v>
+        <v>1.967569026239516</v>
       </c>
       <c r="C15">
-        <v>0.1769977282968682</v>
+        <v>0.05345956761935611</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01798750694044315</v>
+        <v>0.0636983312521231</v>
       </c>
       <c r="F15">
-        <v>2.995113076359956</v>
+        <v>3.973460268645738</v>
       </c>
       <c r="G15">
-        <v>0.0008346287569803903</v>
+        <v>0.002619611390367774</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1226247623107408</v>
+        <v>0.2419015309177066</v>
       </c>
       <c r="K15">
-        <v>2.255910956721891</v>
+        <v>1.468472322130594</v>
       </c>
       <c r="L15">
-        <v>0.1727304958241405</v>
+        <v>0.2351699624193486</v>
       </c>
       <c r="M15">
-        <v>0.439380598680998</v>
+        <v>0.4022083800064706</v>
       </c>
       <c r="N15">
-        <v>2.636790892593069</v>
+        <v>4.41035146163064</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.31386991391264</v>
+        <v>1.936789304756473</v>
       </c>
       <c r="C16">
-        <v>0.1646059917987515</v>
+        <v>0.0501167890926979</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01749155445444472</v>
+        <v>0.06376492177248672</v>
       </c>
       <c r="F16">
-        <v>2.885864170616685</v>
+        <v>3.955161510395641</v>
       </c>
       <c r="G16">
-        <v>0.0008394587369453532</v>
+        <v>0.002622302480197557</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1248667945282946</v>
+        <v>0.2423270084496068</v>
       </c>
       <c r="K16">
-        <v>2.11370217098596</v>
+        <v>1.437021553761184</v>
       </c>
       <c r="L16">
-        <v>0.1631567871345894</v>
+        <v>0.2337522030145749</v>
       </c>
       <c r="M16">
-        <v>0.4135068743638683</v>
+        <v>0.397159819054778</v>
       </c>
       <c r="N16">
-        <v>2.633335836464312</v>
+        <v>4.411648446066735</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.224372162031273</v>
+        <v>1.918171657092614</v>
       </c>
       <c r="C17">
-        <v>0.1570979246479425</v>
+        <v>0.04806630635229681</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01719211154426326</v>
+        <v>0.06381012288097843</v>
       </c>
       <c r="F17">
-        <v>2.820201918736942</v>
+        <v>3.944321605067003</v>
       </c>
       <c r="G17">
-        <v>0.0008424454577336198</v>
+        <v>0.002623989975126964</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1262514264015451</v>
+        <v>0.2425918974173467</v>
       </c>
       <c r="K17">
-        <v>2.02752115361119</v>
+        <v>1.417933208684957</v>
       </c>
       <c r="L17">
-        <v>0.1573419980454105</v>
+        <v>0.2329110594118617</v>
       </c>
       <c r="M17">
-        <v>0.3978189829435763</v>
+        <v>0.3941158881535287</v>
       </c>
       <c r="N17">
-        <v>2.632034330459774</v>
+        <v>4.412672315878837</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.173278519053326</v>
+        <v>1.907560587998717</v>
       </c>
       <c r="C18">
-        <v>0.1528111945892476</v>
+        <v>0.04688696803491155</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01702157949070582</v>
+        <v>0.06383772480824934</v>
       </c>
       <c r="F18">
-        <v>2.782909364509592</v>
+        <v>3.938228579002782</v>
       </c>
       <c r="G18">
-        <v>0.0008441725169506495</v>
+        <v>0.002624974060808464</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1270512318257779</v>
+        <v>0.2427456777274948</v>
       </c>
       <c r="K18">
-        <v>1.978316385879026</v>
+        <v>1.407029644147144</v>
       </c>
       <c r="L18">
-        <v>0.1540178607011953</v>
+        <v>0.2324377920599474</v>
       </c>
       <c r="M18">
-        <v>0.3888596630774117</v>
+        <v>0.392384667949834</v>
       </c>
       <c r="N18">
-        <v>2.631574790195714</v>
+        <v>4.413345036918599</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.156042614042065</v>
+        <v>1.903984578014956</v>
       </c>
       <c r="C19">
-        <v>0.1513649743744594</v>
+        <v>0.04648766928423242</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01696412610280085</v>
+        <v>0.06384734620077559</v>
       </c>
       <c r="F19">
-        <v>2.770362015869864</v>
+        <v>3.936189941833646</v>
       </c>
       <c r="G19">
-        <v>0.0008447588889149908</v>
+        <v>0.002625309574463201</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1273226179901492</v>
+        <v>0.2427979895453198</v>
       </c>
       <c r="K19">
-        <v>1.961716768830541</v>
+        <v>1.403350855937646</v>
       </c>
       <c r="L19">
-        <v>0.1528957657013166</v>
+        <v>0.2322793637170051</v>
       </c>
       <c r="M19">
-        <v>0.385836809357798</v>
+        <v>0.3918018691704859</v>
       </c>
       <c r="N19">
-        <v>2.631467784362457</v>
+        <v>4.413587199949717</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.233859156085146</v>
+        <v>1.920143466967033</v>
       </c>
       <c r="C20">
-        <v>0.1578938282777784</v>
+        <v>0.0482845784009811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01722381039034815</v>
+        <v>0.06380514530446924</v>
       </c>
       <c r="F20">
-        <v>2.827142114709517</v>
+        <v>3.94546085624782</v>
       </c>
       <c r="G20">
-        <v>0.0008421265769341105</v>
+        <v>0.002623808943804834</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1261036782553635</v>
+        <v>0.2425635522453646</v>
       </c>
       <c r="K20">
-        <v>2.036657018827015</v>
+        <v>1.419957375907359</v>
       </c>
       <c r="L20">
-        <v>0.1579588598074793</v>
+        <v>0.2329995106616565</v>
       </c>
       <c r="M20">
-        <v>0.3994822809093748</v>
+        <v>0.3944378949638292</v>
       </c>
       <c r="N20">
-        <v>2.632142708227789</v>
+        <v>4.412554647275343</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.50006459117526</v>
+        <v>1.975597562725852</v>
       </c>
       <c r="C21">
-        <v>0.1802284169459369</v>
+        <v>0.05432269456206029</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01811709639344539</v>
+        <v>0.06368247979943042</v>
       </c>
       <c r="F21">
-        <v>3.023759776016419</v>
+        <v>3.97830390037555</v>
       </c>
       <c r="G21">
-        <v>0.0008333886740143903</v>
+        <v>0.00261892789155843</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1220487534392571</v>
+        <v>0.2417928780531486</v>
       </c>
       <c r="K21">
-        <v>2.292975280874174</v>
+        <v>1.476655915370117</v>
       </c>
       <c r="L21">
-        <v>0.175221193540132</v>
+        <v>0.2355448246225791</v>
       </c>
       <c r="M21">
-        <v>0.4461211828464755</v>
+        <v>0.4035282510072307</v>
       </c>
       <c r="N21">
-        <v>2.637945659871377</v>
+        <v>4.410087200143835</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.678003705024366</v>
+        <v>2.012705978393853</v>
       </c>
       <c r="C22">
-        <v>0.1951692512179903</v>
+        <v>0.05826998691551921</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01871754727132391</v>
+        <v>0.06361648682126653</v>
       </c>
       <c r="F22">
-        <v>3.157028148388832</v>
+        <v>4.001030950855721</v>
       </c>
       <c r="G22">
-        <v>0.0008277492838328364</v>
+        <v>0.002615857198327332</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1194286559076545</v>
+        <v>0.2413018689057811</v>
       </c>
       <c r="K22">
-        <v>2.464290429905503</v>
+        <v>1.514385310518406</v>
       </c>
       <c r="L22">
-        <v>0.1867081723280393</v>
+        <v>0.2373016573888407</v>
       </c>
       <c r="M22">
-        <v>0.4772591972833737</v>
+        <v>0.4096431912468788</v>
       </c>
       <c r="N22">
-        <v>2.644567546571778</v>
+        <v>4.40922202188878</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.582643925072034</v>
+        <v>1.992821309437261</v>
       </c>
       <c r="C23">
-        <v>0.1871603989342674</v>
+        <v>0.05616311729993129</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01839547411270637</v>
+        <v>0.06365041633690538</v>
       </c>
       <c r="F23">
-        <v>3.085436323570008</v>
+        <v>3.98878562553756</v>
       </c>
       <c r="G23">
-        <v>0.0008307531372917252</v>
+        <v>0.002617485198363172</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1208243125525463</v>
+        <v>0.2415627704048049</v>
       </c>
       <c r="K23">
-        <v>2.372480507254636</v>
+        <v>1.494186741461903</v>
       </c>
       <c r="L23">
-        <v>0.1805573872218815</v>
+        <v>0.2363554877334479</v>
       </c>
       <c r="M23">
-        <v>0.4605756680887723</v>
+        <v>0.4063636421615371</v>
       </c>
       <c r="N23">
-        <v>2.640761283154205</v>
+        <v>4.409615341233973</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.229568971207016</v>
+        <v>1.919251723702757</v>
       </c>
       <c r="C24">
-        <v>0.1575339082127272</v>
+        <v>0.04818589913796245</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01720947430679676</v>
+        <v>0.06380739063482732</v>
       </c>
       <c r="F24">
-        <v>2.8240030327363</v>
+        <v>3.944945367872478</v>
       </c>
       <c r="G24">
-        <v>0.0008422707118873321</v>
+        <v>0.002623890744652448</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1261704634708707</v>
+        <v>0.2425763624492117</v>
       </c>
       <c r="K24">
-        <v>2.03252563529125</v>
+        <v>1.419042030072688</v>
       </c>
       <c r="L24">
-        <v>0.1576799181061261</v>
+        <v>0.2329594897097707</v>
       </c>
       <c r="M24">
-        <v>0.3987301183908869</v>
+        <v>0.394292257195751</v>
       </c>
       <c r="N24">
-        <v>2.632092814092033</v>
+        <v>4.412607583333511</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.863110903270496</v>
+        <v>1.843615388722611</v>
       </c>
       <c r="C25">
-        <v>0.1267613604084659</v>
+        <v>0.03958250084130555</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01599452419986047</v>
+        <v>0.06403807758589153</v>
       </c>
       <c r="F25">
-        <v>2.559897010506447</v>
+        <v>3.90307795582865</v>
       </c>
       <c r="G25">
-        <v>0.0008550500571715702</v>
+        <v>0.002631316106071092</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1320675274446295</v>
+        <v>0.2437241029852562</v>
       </c>
       <c r="K25">
-        <v>1.679498723167541</v>
+        <v>1.340873771207811</v>
       </c>
       <c r="L25">
-        <v>0.1337705131469136</v>
+        <v>0.2296994577567091</v>
       </c>
       <c r="M25">
-        <v>0.3344230541260629</v>
+        <v>0.382019629976746</v>
       </c>
       <c r="N25">
-        <v>2.633675498856434</v>
+        <v>4.419039106200003</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_185/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.791111874039018</v>
+        <v>1.60304872745624</v>
       </c>
       <c r="C2">
-        <v>0.03324406318822071</v>
+        <v>0.1048345756803002</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0642612727440639</v>
+        <v>0.01514845333289916</v>
       </c>
       <c r="F2">
-        <v>3.87690584660406</v>
+        <v>2.378245657474878</v>
       </c>
       <c r="G2">
-        <v>0.002637231989988654</v>
+        <v>0.0008648161860715931</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2446161763393331</v>
+        <v>0.136524840666123</v>
       </c>
       <c r="K2">
-        <v>1.28578184861567</v>
+        <v>1.428689566270521</v>
       </c>
       <c r="L2">
-        <v>0.2276476898771023</v>
+        <v>0.1167103832408145</v>
       </c>
       <c r="M2">
-        <v>0.373626407520959</v>
+        <v>0.2887203845585091</v>
       </c>
       <c r="N2">
-        <v>4.426523778078547</v>
+        <v>2.643056187782719</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.757513110745663</v>
+        <v>1.43174018551386</v>
       </c>
       <c r="C3">
-        <v>0.02894370036712246</v>
+        <v>0.09030587093337772</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06444610348159152</v>
+        <v>0.01460248200488845</v>
       </c>
       <c r="F3">
-        <v>3.862069570967918</v>
+        <v>2.261992570942397</v>
       </c>
       <c r="G3">
-        <v>0.002641523552572135</v>
+        <v>0.0008716799071603054</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2452501559365938</v>
+        <v>0.1396194006755236</v>
       </c>
       <c r="K3">
-        <v>1.249973112376694</v>
+        <v>1.263250409645678</v>
       </c>
       <c r="L3">
-        <v>0.2264756928067584</v>
+        <v>0.1054365607316541</v>
       </c>
       <c r="M3">
-        <v>0.3683393834281361</v>
+        <v>0.2585888766151818</v>
       </c>
       <c r="N3">
-        <v>4.433308292482565</v>
+        <v>2.654019171777037</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.737860886305128</v>
+        <v>1.32865080515117</v>
       </c>
       <c r="C4">
-        <v>0.02630019188752897</v>
+        <v>0.0815119852952364</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0645762509700889</v>
+        <v>0.01427998710725387</v>
       </c>
       <c r="F4">
-        <v>3.854390642668804</v>
+        <v>2.19365522330942</v>
       </c>
       <c r="G4">
-        <v>0.002644298649288543</v>
+        <v>0.0008760219429827558</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2456539588095357</v>
+        <v>0.1415565166710033</v>
       </c>
       <c r="K4">
-        <v>1.228737739201136</v>
+        <v>1.163565963301266</v>
       </c>
       <c r="L4">
-        <v>0.2258642718633226</v>
+        <v>0.09864107285159918</v>
       </c>
       <c r="M4">
-        <v>0.3652911447098575</v>
+        <v>0.2404480770116031</v>
       </c>
       <c r="N4">
-        <v>4.438317727532805</v>
+        <v>2.66286828616586</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.730098405744656</v>
+        <v>1.287121416124421</v>
       </c>
       <c r="C5">
-        <v>0.02522208149501637</v>
+        <v>0.07795532184690046</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0646334926623009</v>
+        <v>0.01415166809829493</v>
       </c>
       <c r="F5">
-        <v>3.851621323845677</v>
+        <v>2.166526023270762</v>
       </c>
       <c r="G5">
-        <v>0.002645464855429003</v>
+        <v>0.0008778243924789346</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2458221697563916</v>
+        <v>0.1423553108430315</v>
       </c>
       <c r="K5">
-        <v>1.220273009258733</v>
+        <v>1.123373988184909</v>
       </c>
       <c r="L5">
-        <v>0.2256423957680127</v>
+        <v>0.09590163026916088</v>
       </c>
       <c r="M5">
-        <v>0.3640988227680637</v>
+        <v>0.2331386084623688</v>
       </c>
       <c r="N5">
-        <v>4.440571198703964</v>
+        <v>2.666985715995224</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.728824311699526</v>
+        <v>1.280253208358857</v>
       </c>
       <c r="C6">
-        <v>0.02504300763838785</v>
+        <v>0.07736622783656344</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06464325208021204</v>
+        <v>0.01413054530576385</v>
       </c>
       <c r="F6">
-        <v>3.851183223205481</v>
+        <v>2.162063360107709</v>
       </c>
       <c r="G6">
-        <v>0.002645660640527362</v>
+        <v>0.0008781257091744713</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.245850322067831</v>
+        <v>0.1424885206262099</v>
       </c>
       <c r="K6">
-        <v>1.218878851881442</v>
+        <v>1.116724827261407</v>
       </c>
       <c r="L6">
-        <v>0.2256072035261738</v>
+        <v>0.09544848777348136</v>
       </c>
       <c r="M6">
-        <v>0.3639038520627906</v>
+        <v>0.2319296833984339</v>
       </c>
       <c r="N6">
-        <v>4.440958193250836</v>
+        <v>2.66769970378094</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.73775520269686</v>
+        <v>1.328088839343195</v>
       </c>
       <c r="C7">
-        <v>0.02628565570772423</v>
+        <v>0.08146391621033899</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06457700590181403</v>
+        <v>0.01427824412579515</v>
       </c>
       <c r="F7">
-        <v>3.854351837203637</v>
+        <v>2.193286497875917</v>
       </c>
       <c r="G7">
-        <v>0.00264431423384233</v>
+        <v>0.0008760461164584133</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2456562125476864</v>
+        <v>0.1415672512931323</v>
       </c>
       <c r="K7">
-        <v>1.228622816311571</v>
+        <v>1.163022237389271</v>
       </c>
       <c r="L7">
-        <v>0.22586116899312</v>
+        <v>0.09860400987493279</v>
       </c>
       <c r="M7">
-        <v>0.365274862667448</v>
+        <v>0.2403491722197337</v>
       </c>
       <c r="N7">
-        <v>4.438347260025594</v>
+        <v>2.66292177179777</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.779324200381268</v>
+        <v>1.543517838411475</v>
       </c>
       <c r="C8">
-        <v>0.03176188088598053</v>
+        <v>0.09979565253274814</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06432155402613216</v>
+        <v>0.01495749463925566</v>
       </c>
       <c r="F8">
-        <v>3.871493464625843</v>
+        <v>2.33750130005636</v>
       </c>
       <c r="G8">
-        <v>0.002638682719411121</v>
+        <v>0.0008671568727693957</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2448317569989413</v>
+        <v>0.1375842093990478</v>
       </c>
       <c r="K8">
-        <v>1.273278996583144</v>
+        <v>1.371223640352895</v>
       </c>
       <c r="L8">
-        <v>0.2272211759337708</v>
+        <v>0.1127955784369732</v>
       </c>
       <c r="M8">
-        <v>0.3717623809831672</v>
+        <v>0.2782516385696923</v>
       </c>
       <c r="N8">
-        <v>4.428687917841529</v>
+        <v>2.646383455572675</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.868597799042334</v>
+        <v>1.984873052356704</v>
       </c>
       <c r="C9">
-        <v>0.04248083778131218</v>
+        <v>0.1369957150892986</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06395212277945728</v>
+        <v>0.01639583328417071</v>
       </c>
       <c r="F9">
-        <v>3.916457569267337</v>
+        <v>2.646710136237985</v>
       </c>
       <c r="G9">
-        <v>0.002628745497978854</v>
+        <v>0.0008506930916890587</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2433301969132131</v>
+        <v>0.1300634070937381</v>
       </c>
       <c r="K9">
-        <v>1.366821023761275</v>
+        <v>1.796834572727391</v>
       </c>
       <c r="L9">
-        <v>0.2307435917497074</v>
+        <v>0.1417325901337776</v>
       </c>
       <c r="M9">
-        <v>0.3860537780634488</v>
+        <v>0.3558028773432156</v>
       </c>
       <c r="N9">
-        <v>4.416445182425377</v>
+        <v>2.631792002966279</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.938926891603842</v>
+        <v>2.324135912050906</v>
       </c>
       <c r="C10">
-        <v>0.05035077170568059</v>
+        <v>0.1654672095415179</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06375998093214186</v>
+        <v>0.01752595804129253</v>
       </c>
       <c r="F10">
-        <v>3.956417631701242</v>
+        <v>2.893422757761712</v>
       </c>
       <c r="G10">
-        <v>0.00262211174993811</v>
+        <v>0.0008391191411388321</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.242296975610385</v>
+        <v>0.1247092582542404</v>
       </c>
       <c r="K10">
-        <v>1.439209906518983</v>
+        <v>2.123587172236256</v>
       </c>
       <c r="L10">
-        <v>0.233849609326839</v>
+        <v>0.163823132780351</v>
       </c>
       <c r="M10">
-        <v>0.3975098029892905</v>
+        <v>0.4153059194118995</v>
       </c>
       <c r="N10">
-        <v>4.411542976555268</v>
+        <v>2.633524340026099</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.971953734095564</v>
+        <v>2.482593119122157</v>
       </c>
       <c r="C11">
-        <v>0.05393138269511155</v>
+        <v>0.1787621387647107</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06368960051483441</v>
+        <v>0.01805826815669942</v>
       </c>
       <c r="F11">
-        <v>3.976102141404112</v>
+        <v>3.010750237842444</v>
       </c>
       <c r="G11">
-        <v>0.00261923720935231</v>
+        <v>0.0008339505501524852</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.241842078118454</v>
+        <v>0.1223097534476434</v>
       </c>
       <c r="K11">
-        <v>1.472942681550307</v>
+        <v>2.276154031071997</v>
       </c>
       <c r="L11">
-        <v>0.2353744447371682</v>
+        <v>0.1740910533669577</v>
       </c>
       <c r="M11">
-        <v>0.4029290688621856</v>
+        <v>0.4430622003984084</v>
       </c>
       <c r="N11">
-        <v>4.410203539660969</v>
+        <v>2.637408932538335</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.984608854769363</v>
+        <v>2.54326927313673</v>
       </c>
       <c r="C12">
-        <v>0.05528745238316901</v>
+        <v>0.1838548093488015</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06366538223589124</v>
+        <v>0.01826267577781415</v>
       </c>
       <c r="F12">
-        <v>3.983772793668692</v>
+        <v>3.055990333261434</v>
       </c>
       <c r="G12">
-        <v>0.002618169168437735</v>
+        <v>0.0008320056925056308</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2416719921881061</v>
+        <v>0.1214062661844899</v>
       </c>
       <c r="K12">
-        <v>1.485832108819977</v>
+        <v>2.334571733903175</v>
       </c>
       <c r="L12">
-        <v>0.2359678833457721</v>
+        <v>0.1780141600665104</v>
       </c>
       <c r="M12">
-        <v>0.4050110607444353</v>
+        <v>0.4536844238460276</v>
       </c>
       <c r="N12">
-        <v>4.40982454443909</v>
+        <v>2.639361938390152</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.981876741586632</v>
+        <v>2.530170358541056</v>
       </c>
       <c r="C13">
-        <v>0.05499538947078975</v>
+        <v>0.1827552732925568</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06367049009381009</v>
+        <v>0.01821852318614425</v>
       </c>
       <c r="F13">
-        <v>3.982111151188747</v>
+        <v>3.046209690007487</v>
       </c>
       <c r="G13">
-        <v>0.002618398280665207</v>
+        <v>0.0008324240273346788</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2417085265561809</v>
+        <v>0.1216006196221411</v>
       </c>
       <c r="K13">
-        <v>1.483050998461977</v>
+        <v>2.321960443691466</v>
       </c>
       <c r="L13">
-        <v>0.2358393645474237</v>
+        <v>0.1771676405813594</v>
       </c>
       <c r="M13">
-        <v>0.4045613405793347</v>
+        <v>0.4513915643309332</v>
       </c>
       <c r="N13">
-        <v>4.409900462711931</v>
+        <v>2.638919261006833</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.972991901341459</v>
+        <v>2.487571038859983</v>
       </c>
       <c r="C14">
-        <v>0.05404294342524452</v>
+        <v>0.1791798959350217</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06368755938187043</v>
+        <v>0.01807502677422068</v>
       </c>
       <c r="F14">
-        <v>3.97672887088504</v>
+        <v>3.014455446318692</v>
       </c>
       <c r="G14">
-        <v>0.002619148930909389</v>
+        <v>0.0008337903065513257</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2418280414803462</v>
+        <v>0.1222353199070838</v>
       </c>
       <c r="K14">
-        <v>1.474000785782806</v>
+        <v>2.280946700753333</v>
       </c>
       <c r="L14">
-        <v>0.2354229467117932</v>
+        <v>0.1744130903176568</v>
       </c>
       <c r="M14">
-        <v>0.4030997580005646</v>
+        <v>0.4439337855561334</v>
       </c>
       <c r="N14">
-        <v>4.410169788876317</v>
+        <v>2.637559723648337</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.967569026239516</v>
+        <v>2.461567690844788</v>
       </c>
       <c r="C15">
-        <v>0.05345956761935611</v>
+        <v>0.1769977282968398</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0636983312521231</v>
+        <v>0.01798750694044227</v>
       </c>
       <c r="F15">
-        <v>3.973460268645738</v>
+        <v>2.995113076359985</v>
       </c>
       <c r="G15">
-        <v>0.002619611390367774</v>
+        <v>0.0008346287569802793</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2419015309177066</v>
+        <v>0.1226247623107248</v>
       </c>
       <c r="K15">
-        <v>1.468472322130594</v>
+        <v>2.25591095672192</v>
       </c>
       <c r="L15">
-        <v>0.2351699624193486</v>
+        <v>0.1727304958242399</v>
       </c>
       <c r="M15">
-        <v>0.4022083800064706</v>
+        <v>0.4393805986810051</v>
       </c>
       <c r="N15">
-        <v>4.41035146163064</v>
+        <v>2.636790892593098</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.936789304756473</v>
+        <v>2.31386991391247</v>
       </c>
       <c r="C16">
-        <v>0.0501167890926979</v>
+        <v>0.1646059917980978</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06376492177248672</v>
+        <v>0.01749155445442074</v>
       </c>
       <c r="F16">
-        <v>3.955161510395641</v>
+        <v>2.885864170616699</v>
       </c>
       <c r="G16">
-        <v>0.002622302480197557</v>
+        <v>0.0008394587369471899</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2423270084496068</v>
+        <v>0.1248667945282556</v>
       </c>
       <c r="K16">
-        <v>1.437021553761184</v>
+        <v>2.113702170986073</v>
       </c>
       <c r="L16">
-        <v>0.2337522030145749</v>
+        <v>0.1631567871346604</v>
       </c>
       <c r="M16">
-        <v>0.397159819054778</v>
+        <v>0.4135068743638612</v>
       </c>
       <c r="N16">
-        <v>4.411648446066735</v>
+        <v>2.633335836464326</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.918171657092614</v>
+        <v>2.224372162031159</v>
       </c>
       <c r="C17">
-        <v>0.04806630635229681</v>
+        <v>0.1570979246476725</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06381012288097843</v>
+        <v>0.0171921115442597</v>
       </c>
       <c r="F17">
-        <v>3.944321605067003</v>
+        <v>2.820201918736942</v>
       </c>
       <c r="G17">
-        <v>0.002623989975126964</v>
+        <v>0.0008424454578487743</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2425918974173467</v>
+        <v>0.1262514264015273</v>
       </c>
       <c r="K17">
-        <v>1.417933208684957</v>
+        <v>2.027521153611133</v>
       </c>
       <c r="L17">
-        <v>0.2329110594118617</v>
+        <v>0.15734199804551</v>
       </c>
       <c r="M17">
-        <v>0.3941158881535287</v>
+        <v>0.3978189829435692</v>
       </c>
       <c r="N17">
-        <v>4.412672315878837</v>
+        <v>2.632034330459746</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.907560587998717</v>
+        <v>2.173278519053383</v>
       </c>
       <c r="C18">
-        <v>0.04688696803491155</v>
+        <v>0.1528111945892334</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06383772480824934</v>
+        <v>0.01702157949070315</v>
       </c>
       <c r="F18">
-        <v>3.938228579002782</v>
+        <v>2.782909364509592</v>
       </c>
       <c r="G18">
-        <v>0.002624974060808464</v>
+        <v>0.0008441725170090272</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2427456777274948</v>
+        <v>0.1270512318258774</v>
       </c>
       <c r="K18">
-        <v>1.407029644147144</v>
+        <v>1.978316385879111</v>
       </c>
       <c r="L18">
-        <v>0.2324377920599474</v>
+        <v>0.1540178607012379</v>
       </c>
       <c r="M18">
-        <v>0.392384667949834</v>
+        <v>0.3888596630773904</v>
       </c>
       <c r="N18">
-        <v>4.413345036918599</v>
+        <v>2.6315747901957</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.903984578014956</v>
+        <v>2.156042614042178</v>
       </c>
       <c r="C19">
-        <v>0.04648766928423242</v>
+        <v>0.1513649743746868</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06384734620077559</v>
+        <v>0.01696412610283371</v>
       </c>
       <c r="F19">
-        <v>3.936189941833646</v>
+        <v>2.770362015869893</v>
       </c>
       <c r="G19">
-        <v>0.002625309574463201</v>
+        <v>0.0008447588889157031</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2427979895453198</v>
+        <v>0.1273226179900284</v>
       </c>
       <c r="K19">
-        <v>1.403350855937646</v>
+        <v>1.961716768830598</v>
       </c>
       <c r="L19">
-        <v>0.2322793637170051</v>
+        <v>0.1528957657013947</v>
       </c>
       <c r="M19">
-        <v>0.3918018691704859</v>
+        <v>0.385836809357798</v>
       </c>
       <c r="N19">
-        <v>4.413587199949717</v>
+        <v>2.631467784362485</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.920143466967033</v>
+        <v>2.233859156085259</v>
       </c>
       <c r="C20">
-        <v>0.0482845784009811</v>
+        <v>0.1578938282777784</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06380514530446924</v>
+        <v>0.01722381039038812</v>
       </c>
       <c r="F20">
-        <v>3.94546085624782</v>
+        <v>2.827142114709503</v>
       </c>
       <c r="G20">
-        <v>0.002623808943804834</v>
+        <v>0.0008421265768771761</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2425635522453646</v>
+        <v>0.1261036782554648</v>
       </c>
       <c r="K20">
-        <v>1.419957375907359</v>
+        <v>2.036657018826958</v>
       </c>
       <c r="L20">
-        <v>0.2329995106616565</v>
+        <v>0.1579588598075219</v>
       </c>
       <c r="M20">
-        <v>0.3944378949638292</v>
+        <v>0.3994822809093748</v>
       </c>
       <c r="N20">
-        <v>4.412554647275343</v>
+        <v>2.632142708227789</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.975597562725852</v>
+        <v>2.500064591175146</v>
       </c>
       <c r="C21">
-        <v>0.05432269456206029</v>
+        <v>0.1802284169461643</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06368247979943042</v>
+        <v>0.01811709639344627</v>
       </c>
       <c r="F21">
-        <v>3.97830390037555</v>
+        <v>3.023759776016419</v>
       </c>
       <c r="G21">
-        <v>0.00261892789155843</v>
+        <v>0.0008333886740147802</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2417928780531486</v>
+        <v>0.1220487534392554</v>
       </c>
       <c r="K21">
-        <v>1.476655915370117</v>
+        <v>2.292975280874145</v>
       </c>
       <c r="L21">
-        <v>0.2355448246225791</v>
+        <v>0.1752211935402386</v>
       </c>
       <c r="M21">
-        <v>0.4035282510072307</v>
+        <v>0.4461211828464826</v>
       </c>
       <c r="N21">
-        <v>4.410087200143835</v>
+        <v>2.637945659871377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.012705978393853</v>
+        <v>2.678003705024366</v>
       </c>
       <c r="C22">
-        <v>0.05826998691551921</v>
+        <v>0.1951692512172798</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06361648682126653</v>
+        <v>0.01871754727132569</v>
       </c>
       <c r="F22">
-        <v>4.001030950855721</v>
+        <v>3.157028148388804</v>
       </c>
       <c r="G22">
-        <v>0.002615857198327332</v>
+        <v>0.0008277492838334455</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2413018689057811</v>
+        <v>0.1194286559076492</v>
       </c>
       <c r="K22">
-        <v>1.514385310518406</v>
+        <v>2.464290429905617</v>
       </c>
       <c r="L22">
-        <v>0.2373016573888407</v>
+        <v>0.1867081723280535</v>
       </c>
       <c r="M22">
-        <v>0.4096431912468788</v>
+        <v>0.4772591972833808</v>
       </c>
       <c r="N22">
-        <v>4.40922202188878</v>
+        <v>2.644567546571807</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992821309437261</v>
+        <v>2.582643925072091</v>
       </c>
       <c r="C23">
-        <v>0.05616311729993129</v>
+        <v>0.1871603989345232</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06365041633690538</v>
+        <v>0.01839547411267883</v>
       </c>
       <c r="F23">
-        <v>3.98878562553756</v>
+        <v>3.085436323569979</v>
       </c>
       <c r="G23">
-        <v>0.002617485198363172</v>
+        <v>0.0008307531374121248</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2415627704048049</v>
+        <v>0.1208243125524913</v>
       </c>
       <c r="K23">
-        <v>1.494186741461903</v>
+        <v>2.372480507254608</v>
       </c>
       <c r="L23">
-        <v>0.2363554877334479</v>
+        <v>0.1805573872219099</v>
       </c>
       <c r="M23">
-        <v>0.4063636421615371</v>
+        <v>0.4605756680887581</v>
       </c>
       <c r="N23">
-        <v>4.409615341233973</v>
+        <v>2.640761283154205</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.919251723702757</v>
+        <v>2.229568971206902</v>
       </c>
       <c r="C24">
-        <v>0.04818589913796245</v>
+        <v>0.157533908212713</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06380739063482732</v>
+        <v>0.01720947430676389</v>
       </c>
       <c r="F24">
-        <v>3.944945367872478</v>
+        <v>2.8240030327363</v>
       </c>
       <c r="G24">
-        <v>0.002623890744652448</v>
+        <v>0.0008422707119458507</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2425763624492117</v>
+        <v>0.1261704634707925</v>
       </c>
       <c r="K24">
-        <v>1.419042030072688</v>
+        <v>2.032525635291364</v>
       </c>
       <c r="L24">
-        <v>0.2329594897097707</v>
+        <v>0.1576799181062256</v>
       </c>
       <c r="M24">
-        <v>0.394292257195751</v>
+        <v>0.3987301183909011</v>
       </c>
       <c r="N24">
-        <v>4.412607583333511</v>
+        <v>2.632092814092047</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.843615388722611</v>
+        <v>1.863110903270496</v>
       </c>
       <c r="C25">
-        <v>0.03958250084130555</v>
+        <v>0.1267613604086648</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06403807758589153</v>
+        <v>0.01599452419987824</v>
       </c>
       <c r="F25">
-        <v>3.90307795582865</v>
+        <v>2.559897010506447</v>
       </c>
       <c r="G25">
-        <v>0.002631316106071092</v>
+        <v>0.0008550500571212092</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2437241029852562</v>
+        <v>0.1320675274447094</v>
       </c>
       <c r="K25">
-        <v>1.340873771207811</v>
+        <v>1.679498723167455</v>
       </c>
       <c r="L25">
-        <v>0.2296994577567091</v>
+        <v>0.133770513146878</v>
       </c>
       <c r="M25">
-        <v>0.382019629976746</v>
+        <v>0.3344230541260416</v>
       </c>
       <c r="N25">
-        <v>4.419039106200003</v>
+        <v>2.633675498856419</v>
       </c>
       <c r="O25">
         <v>0</v>
